--- a/medicine/Enfance/Clémentine_Beauvais/Clémentine_Beauvais.xlsx
+++ b/medicine/Enfance/Clémentine_Beauvais/Clémentine_Beauvais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mentine_Beauvais</t>
+          <t>Clémentine_Beauvais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clémentine Beauvais est une écrivaine et traductrice française, née le 6 janvier 1989. Elle vit actuellement entre Paris et Cambridge au Royaume-Uni où elle est enseignante-chercheuse en sociologie et philosophie de l’enfance à l'université d'York.
 Elle a remporté plusieurs prix en littérature jeunesse, notamment pour son roman Les Petites Reines.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mentine_Beauvais</t>
+          <t>Clémentine_Beauvais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clémentine Morgane Mélusine Hécate Beauvais[1] naît le 6 janvier 1989[2]. Elle part vivre en Angleterre à 17 ans[2]. En 2010, sa nouvelle L’Étrange Cas des deux amours de Jean-Baptiste Robert est primée au prix du jeune écrivain de langue française[3]. Elle publie ses premiers livres à l'âge de 21 ans.
-Son livre Songe à la douceur, sorti en 2016, est un roman en vers libre inspiré de l’œuvre d'Alexandre Pouchkine, Eugène Onéguine[4].
-En parallèle de l'écriture, et après avoir étudié à l'université de Cambridge, elle est, depuis 2016, enseignante-chercheuse en éducation et littérature anglaise à l'université d'York[5].
-Son expérience de vie outre-Manche lui donne envie d'écrire un roman sur le Brexit, intitulé Brexit romance et paru en 2018[5].
-Elle fait partie de l'association la Charte des auteurs et illustrateurs jeunesse[6] qui vise à promouvoir la littérature jeunesse[7].
-En 2021 paraît aux éditions de l'Iconoclaste dans la collection « Iconopop » son premier roman en vers pour adultes, Décomposée, qui s'inspire librement du poème de Charles Baudelaire, Une charogne[8].
-En 2022 paraît aux éditions Iello son premier jeu de plateau, co-créé avec Dave Neale, Les Animaux de Baker Street, un jeu d’enquête narratif et coopératif dans l’univers de Sherlock Holmes[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clémentine Morgane Mélusine Hécate Beauvais naît le 6 janvier 1989. Elle part vivre en Angleterre à 17 ans. En 2010, sa nouvelle L’Étrange Cas des deux amours de Jean-Baptiste Robert est primée au prix du jeune écrivain de langue française. Elle publie ses premiers livres à l'âge de 21 ans.
+Son livre Songe à la douceur, sorti en 2016, est un roman en vers libre inspiré de l’œuvre d'Alexandre Pouchkine, Eugène Onéguine.
+En parallèle de l'écriture, et après avoir étudié à l'université de Cambridge, elle est, depuis 2016, enseignante-chercheuse en éducation et littérature anglaise à l'université d'York.
+Son expérience de vie outre-Manche lui donne envie d'écrire un roman sur le Brexit, intitulé Brexit romance et paru en 2018.
+Elle fait partie de l'association la Charte des auteurs et illustrateurs jeunesse qui vise à promouvoir la littérature jeunesse.
+En 2021 paraît aux éditions de l'Iconoclaste dans la collection « Iconopop » son premier roman en vers pour adultes, Décomposée, qui s'inspire librement du poème de Charles Baudelaire, Une charogne.
+En 2022 paraît aux éditions Iello son premier jeu de plateau, co-créé avec Dave Neale, Les Animaux de Baker Street, un jeu d’enquête narratif et coopératif dans l’univers de Sherlock Holmes.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9mentine_Beauvais</t>
+          <t>Clémentine_Beauvais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,16 +567,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Samiha et les fantômes  (ill. Sylvie Serprix), Talents Hauts, coll. « Livres et égaux », 2010, 32 p. (ISBN 978-2-916238-77-7).
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Samiha et les fantômes  (ill. Sylvie Serprix), Talents Hauts, coll. « Livres et égaux », 2010, 32 p. (ISBN 978-2-916238-77-7).
 Lettres de mon hélicoptêtre  (ill. Anne Rouquette), Paris, Sarbacane, 2015, 24 p. (ISBN 978-2-84865-752-3).
 Va jouer avec le petit garçon !  (ill. Maisie Paradise Shearring), Paris, Sarbacane, 2016, 32 p. (ISBN 978-2-84865-899-5).
-Ameline, joueuse de flûte (ill. Antoine Déprez), Alice jeunesse, 2018, 48p.  (ISBN 978-2-87426-335-4)[10]
+Ameline, joueuse de flûte (ill. Antoine Déprez), Alice jeunesse, 2018, 48p.  (ISBN 978-2-87426-335-4)
 Les Esprits de l'escalier (ill. Gérald Guerlais), Paris, Sarbacane, 2020, 34 p.  (ISBN 978-2-37731-373-0)
-Boucles de pierre[11], illustrations de Max Ducos, Sarbacane, 2021
-Romans
-Pour enfants
-En anglais
+Boucles de pierre, illustrations de Max Ducos, Sarbacane, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pour enfants</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En anglais
 Sesame Seade Mysteries :
 Bibi Scott, détective à roulettes : Chasse au scoop [« Sleuth on Skates »]  (trad. de l'anglais par Anne Guitton, ill. Zelda Zonk), vol. 1, Paris, Rageot, 2017, 224 p. (ISBN 978-2-7002-5312-2)
 Bibi Scott, détective à roulettes : Gare aux gargouilles [« Gargoyles Gone AWOL »]  (trad. de l'anglais par Anne Guitton, ill. Zelda Zonk), vol. 2, Paris, Rageot, 2018, 208 p. (ISBN 978-2-7002-5313-9)
@@ -586,10 +642,48 @@
 La Revanche des princesses, Clémentine Beauvais, Sandrine Beau, Charlotte Bousquet, Alice Brière-Haquet, Anne-Fleur Multon, Carole Trébor, ill. Kim Consigny, Poulpe fiction, 2019, 198 p.  (ISBN 978-2-37742-052-0)
 « Pourquoi lire de la littérature ado quand on est adulte ? », pp. 54-57 in En quête d'un Grand Peut-Être, Guide de la littérature ado, Tom et Nathan Lévèque, 2020, 224 p.  (ISBN 978-2-95732-870-3)
 « Moules-frites », pp. 58-60 in En quête d'un Grand Peut-Être, Guide de la littérature ado, Tom et Nathan Lévèque, 2020, 224 p.  (ISBN 978-2-95732-870-3)
-Si on chantait! tome 2 : Prunille présidente, Clémentine Beauvais, Flore Vesco, Jean-Claude Mourlevat, Stéphane Michaka, Marine Carteron, Yves Grevet, Christelle Dabos, Timothée de Fombelle, François Place, Christophe Mauri, Anne-Laure Bondoux, Victor Dixen, Julia Thévenot, Susie Morgenstern, Vincent Villeminot, Pocket Jeunesse , 2022, 240 p.  (ISBN 9782266323338)
-Pour adolescents
-Les Petites Filles top-modèles, Éditions Talents Hauts , 2010, 108 p.  (ISBN 9782916238807)
-La Pouilleuse, Paris, Sarbacane, 2012, 106 p. (ISBN 978-2-84865-538-3)[12]
+Si on chantait! tome 2 : Prunille présidente, Clémentine Beauvais, Flore Vesco, Jean-Claude Mourlevat, Stéphane Michaka, Marine Carteron, Yves Grevet, Christelle Dabos, Timothée de Fombelle, François Place, Christophe Mauri, Anne-Laure Bondoux, Victor Dixen, Julia Thévenot, Susie Morgenstern, Vincent Villeminot, Pocket Jeunesse , 2022, 240 p.  (ISBN 9782266323338)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pour adolescents</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Petites Filles top-modèles, Éditions Talents Hauts , 2010, 108 p.  (ISBN 9782916238807)
+La Pouilleuse, Paris, Sarbacane, 2012, 106 p. (ISBN 978-2-84865-538-3)
 Comme des images, Paris, Sarbacane, coll. « Exprim' », 2014, 204 p. (ISBN 978-2-84865-660-1)
 Les Petites Reines, Paris, Sarbacane, coll. « Exprim' », 2015, 270 p. (ISBN 978-2-84865-768-4)
 Songe à la douceur, Paris, Sarbacane, coll. « Exprim' », 2016, 240 p. (ISBN 978-2-84865-908-4)
@@ -600,23 +694,235 @@
 Zeus, l'enfance d'un dieu : A la conquête de l'Olympe, Nathan, 2020, 48 p.  (ISBN 9782092594230)
 Orphée à la recherche d'Eurydice, illustrations de Régis Lejonc, Nathan, 2021
 Les Facétieuses, Paris, Sarbacane, coll. « Exprim' », 2022, 314 p. (ISBN 978-2-37731-731-8)
-L'Amour en poésie, Gallimard jeunesse , 2022, 12 8p.  (ISBN 9782075172011)
-Pour jeunes adultes
-Brexit Romance, Paris, Sarbacane, août 2018, 449 p. (ISBN 978-2-37731-145-3)[5]
-Pour adultes
-Décomposée, Paris, L'Iconoclaste, coll. « L'Iconopop », avril 2021, 120 p.  (ISBN 978-2-37880-196-0)
-Nouvelles
-Clémentine Beauvais, « L’étrange cas des deux amours de Jean-Baptiste Robert », dans Guy Chevalley, L'enfant sur la falaise et autres nouvelles, Buchet-Chastel, 2010 (ISBN 978-2-283-02447-8).
-Le Raccourci, dans Que raconte mon corps ? Philéas et Autobule n° 44, avril-mai 2015,  (ISSN 1782-7485)
-Essais
-(en) Clémentine Beauvais, Complete Writing for Children Course, Teach yourself, 28 novembre 2014 (ISBN 978-1-4718-0440-3)
+L'Amour en poésie, Gallimard jeunesse , 2022, 12 8p.  (ISBN 9782075172011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pour jeunes adultes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brexit Romance, Paris, Sarbacane, août 2018, 449 p. (ISBN 978-2-37731-145-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pour adultes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Décomposée, Paris, L'Iconoclaste, coll. « L'Iconopop », avril 2021, 120 p.  (ISBN 978-2-37880-196-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Clémentine Beauvais, « L’étrange cas des deux amours de Jean-Baptiste Robert », dans Guy Chevalley, L'enfant sur la falaise et autres nouvelles, Buchet-Chastel, 2010 (ISBN 978-2-283-02447-8).
+Le Raccourci, dans Que raconte mon corps ? Philéas et Autobule n° 44, avril-mai 2015,  (ISSN 1782-7485)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Clémentine Beauvais, Complete Writing for Children Course, Teach yourself, 28 novembre 2014 (ISBN 978-1-4718-0440-3)
 (en) Clémentine Beauvais, The Mighty Child:Time and power in children's literature, John Benjamin's Publishing Company, 14 janvier 2015 (ISBN 978-9-0272-0158-4)
 (en) Clementine Beauvais et Maria Nikolajeva, The Edinburgh Companion to Children's Literature, Edinburgh University Press, novembre 2017, 500 p. (ISBN 978-1-4744-1463-0)
-Écrire comme une abeille : la littérature jeunesse, de la lecture à l'écriture, Gallimard Jeunesse, 2023, 447 p.  (ISBN 978-2-07-516723-9)
-Récits
-Clémentine Beauvais, Sainte Marguerite-Marie et moi, Quasar éditions, 2021, 248 p. (ISBN 978-2-36969-089-4, présentation en ligne)
-Traductions
-Inséparables, Sarah Crossan, Rageot, 2017, 403 p.  (ISBN 978-2-7002-7417-2)
+Écrire comme une abeille : la littérature jeunesse, de la lecture à l'écriture, Gallimard Jeunesse, 2023, 447 p.  (ISBN 978-2-07-516723-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récits</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Clémentine Beauvais, Sainte Marguerite-Marie et moi, Quasar éditions, 2021, 248 p. (ISBN 978-2-36969-089-4, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Inséparables, Sarah Crossan, Rageot, 2017, 403 p.  (ISBN 978-2-7002-7417-2)
 Swimming pool, Sarah Crossan, Rageot, 2018, 252 p.  (ISBN 978-2-7002-5644-4)
 Moon brothers, Sarah Crossan, Rageot, 2019, 372 p.  (ISBN 978-2-7002-7368-7)
 Signé Poète X, Elizabeth Acevedo, Nathan, 2019, 384 p.  (ISBN 978-2-09-258729-4)
@@ -629,88 +935,126 @@
 Dans le bleu, Joyce Carol Oates, Robert  Laffont, 2022, 288 p.  (ISBN 9782221262870)
 Riposte, Louisa Reid, Bayard jeunesse, 2022, 300 p.  (ISBN 9791036326257)
 Emma, Jane Austen, éditions Baribal, 2023, 576 p.  (ISBN 2491683210)
-Prendre la route, Michael Rosen, ill. Quentin Blake, Gallimard Jeunesse, 2023, 133 p.  (ISBN 978-2-07-517348-3)
-Jeux de plateau
-Clémentine Beauvais et Dave Neale, Les Animaux de Baker Street, Iello</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9mentine_Beauvais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Prendre la route, Michael Rosen, ill. Quentin Blake, Gallimard Jeunesse, 2023, 133 p.  (ISBN 978-2-07-517348-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jeux de plateau</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Clémentine Beauvais et Dave Neale, Les Animaux de Baker Street, Iello</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Étrange cas des deux amours de Jean-Baptiste Robert :
-Prix du jeune écrivain de langue française[3] 2010
+Prix du jeune écrivain de langue française 2010
 Les Petites Reines :
-Meilleur Livre Jeunesse 2015 par le magazine Lire[13] du palmarès Meilleurs livres de l'année du magazine Lire
-Lauréat du prix Millepages 2015, catégorie Roman Ado[14]
-Prix NRP de littérature jeunesse 2015-2016[15]
-Prix Sorcières 2016, catégorie Roman Ado[16]
-Prix Libr’A Nous 2016[17]
-« Honour List » 2016[18] de l' IBBY
+Meilleur Livre Jeunesse 2015 par le magazine Lire du palmarès Meilleurs livres de l'année du magazine Lire
+Lauréat du prix Millepages 2015, catégorie Roman Ado
+Prix NRP de littérature jeunesse 2015-2016
+Prix Sorcières 2016, catégorie Roman Ado
+Prix Libr’A Nous 2016
+« Honour List » 2016 de l' IBBY
 La Louve, illustré par Antoine Déprez :
-Prix des Incorruptibles 2016, catégorie CE2/CM1[19]
+Prix des Incorruptibles 2016, catégorie CE2/CM1
 Carambol'Ange, avec Églantine Ceulemans :
-Prix Enfantaisie (Suisse) 2016[20]
+Prix Enfantaisie (Suisse) 2016
 Songe à la douceur :
 La Voix des blogueurs 2017
 La Plume de Marie, illustré par Anaïs Bernabé :
-Prix Unicef de littérature jeunesse[21] 2017
+Prix Unicef de littérature jeunesse 2017
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cl%C3%A9mentine_Beauvais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clémentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cl%C3%A9mentine_Beauvais</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Petites Reines a été adapté en pièce de théâtre[22] en 2017, avec une mise en scène de Justine Heynemann[23] ; ainsi qu'en bande dessinée par Magali Le Huche en 2023[24].
-Une adaptation de ce roman est également prévue pour le cinéma[13]. Le groupe Lionceau Film en a acheté les droits[25].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Petites Reines a été adapté en pièce de théâtre en 2017, avec une mise en scène de Justine Heynemann ; ainsi qu'en bande dessinée par Magali Le Huche en 2023.
+Une adaptation de ce roman est également prévue pour le cinéma. Le groupe Lionceau Film en a acheté les droits.
 </t>
         </is>
       </c>
